--- a/output/20141112_e10b989_ChaperoneMicro_pycket_fast.xlsx
+++ b/output/20141112_e10b989_ChaperoneMicro_pycket_fast.xlsx
@@ -114,10 +114,13 @@
     <t>181</t>
   </si>
   <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>202</t>
+    <t>187</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>205</t>
   </si>
   <si>
     <t>208</t>
@@ -126,10 +129,10 @@
     <t>211</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>223</t>
+    <t>214</t>
+  </si>
+  <si>
+    <t>217</t>
   </si>
   <si>
     <t>226</t>
@@ -141,10 +144,25 @@
     <t>232</t>
   </si>
   <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>253</t>
+    <t>238</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>262</t>
   </si>
   <si>
     <t>265</t>
@@ -156,34 +174,16 @@
     <t>271</t>
   </si>
   <si>
-    <t>277</t>
-  </si>
-  <si>
     <t>280</t>
   </si>
   <si>
-    <t>283</t>
-  </si>
-  <si>
     <t>286</t>
   </si>
   <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>295</t>
+    <t>298</t>
   </si>
   <si>
     <t>304</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>313</t>
   </si>
   <si>
     <t>316</t>
@@ -1210,10 +1210,10 @@
         <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>3188.0</v>
+        <v>2272.0</v>
       </c>
     </row>
     <row r="31">
@@ -1224,16 +1224,16 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F31" t="n">
-        <v>12440.0</v>
+        <v>1804.0</v>
       </c>
     </row>
     <row r="32">
@@ -1244,16 +1244,16 @@
         <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F32" t="n">
-        <v>544.0</v>
+        <v>3196.0</v>
       </c>
     </row>
     <row r="33">
@@ -1267,13 +1267,13 @@
         <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
         <v>104</v>
       </c>
       <c r="F33" t="n">
-        <v>132.0</v>
+        <v>540.0</v>
       </c>
     </row>
     <row r="34">
@@ -1290,7 +1290,7 @@
         <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F34" t="n">
         <v>132.0</v>
@@ -1304,16 +1304,16 @@
         <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F35" t="n">
-        <v>132.0</v>
+        <v>10428.0</v>
       </c>
     </row>
     <row r="36">
@@ -1324,16 +1324,16 @@
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F36" t="n">
-        <v>692.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="37">
@@ -1347,13 +1347,13 @@
         <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F37" t="n">
-        <v>136.0</v>
+        <v>644.0</v>
       </c>
     </row>
     <row r="38">
@@ -1373,7 +1373,7 @@
         <v>106</v>
       </c>
       <c r="F38" t="n">
-        <v>540.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="39">
@@ -1390,10 +1390,10 @@
         <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F39" t="n">
-        <v>136.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="40">
@@ -1407,13 +1407,13 @@
         <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F40" t="n">
-        <v>11372.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="41">
@@ -1427,13 +1427,13 @@
         <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F41" t="n">
-        <v>132.0</v>
+        <v>12320.0</v>
       </c>
     </row>
     <row r="42">
@@ -1444,16 +1444,16 @@
         <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F42" t="n">
-        <v>548.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="43">
@@ -1467,13 +1467,13 @@
         <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F43" t="n">
-        <v>136.0</v>
+        <v>748.0</v>
       </c>
     </row>
     <row r="44">
@@ -1487,13 +1487,13 @@
         <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F44" t="n">
-        <v>132.0</v>
+        <v>11212.0</v>
       </c>
     </row>
     <row r="45">
@@ -1507,13 +1507,13 @@
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
         <v>98</v>
       </c>
       <c r="F45" t="n">
-        <v>724.0</v>
+        <v>692.0</v>
       </c>
     </row>
     <row r="46">
@@ -1524,16 +1524,16 @@
         <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
         <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F46" t="n">
-        <v>3240.0</v>
+        <v>19601.0</v>
       </c>
     </row>
     <row r="47">
@@ -1544,16 +1544,16 @@
         <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
         <v>104</v>
       </c>
       <c r="F47" t="n">
-        <v>544.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="48">
@@ -1570,10 +1570,10 @@
         <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F48" t="n">
-        <v>648.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="49">
@@ -1587,13 +1587,13 @@
         <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F49" t="n">
-        <v>792.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="50">
@@ -1604,16 +1604,16 @@
         <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
         <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F50" t="n">
-        <v>13716.0</v>
+        <v>3192.0</v>
       </c>
     </row>
     <row r="51">
@@ -1630,10 +1630,10 @@
         <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F51" t="n">
-        <v>1516.0</v>
+        <v>1452.0</v>
       </c>
     </row>
     <row r="52">
@@ -1644,16 +1644,16 @@
         <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
         <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F52" t="n">
-        <v>1796.0</v>
+        <v>1540.0</v>
       </c>
     </row>
     <row r="53">
@@ -1664,16 +1664,16 @@
         <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F53" t="n">
-        <v>10412.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="54">
@@ -1687,13 +1687,13 @@
         <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F54" t="n">
-        <v>10292.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="55">
@@ -1710,10 +1710,10 @@
         <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="n">
-        <v>1436.0</v>
+        <v>10268.0</v>
       </c>
     </row>
     <row r="56">
@@ -2367,10 +2367,10 @@
         <v>184</v>
       </c>
       <c r="F2" t="n">
-        <v>11372.0</v>
+        <v>11212.0</v>
       </c>
       <c r="G2" t="n">
-        <v>11372.0</v>
+        <v>11212.0</v>
       </c>
     </row>
     <row r="3">
@@ -2390,10 +2390,10 @@
         <v>184</v>
       </c>
       <c r="F3" t="n">
-        <v>12440.0</v>
+        <v>12320.0</v>
       </c>
       <c r="G3" t="n">
-        <v>12440.0</v>
+        <v>12320.0</v>
       </c>
     </row>
     <row r="4">
@@ -2505,10 +2505,10 @@
         <v>184</v>
       </c>
       <c r="F8" t="n">
-        <v>648.0</v>
+        <v>644.0</v>
       </c>
       <c r="G8" t="n">
-        <v>648.0</v>
+        <v>644.0</v>
       </c>
     </row>
     <row r="9">
@@ -2712,10 +2712,10 @@
         <v>184</v>
       </c>
       <c r="F17" t="n">
-        <v>540.0</v>
+        <v>544.0</v>
       </c>
       <c r="G17" t="n">
-        <v>540.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         <v>184</v>
       </c>
       <c r="F22" t="n">
-        <v>548.0</v>
+        <v>540.0</v>
       </c>
       <c r="G22" t="n">
-        <v>548.0</v>
+        <v>540.0</v>
       </c>
     </row>
     <row r="23">
@@ -2850,10 +2850,10 @@
         <v>184</v>
       </c>
       <c r="F23" t="n">
-        <v>544.0</v>
+        <v>528.0</v>
       </c>
       <c r="G23" t="n">
-        <v>544.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="24">
@@ -2942,10 +2942,10 @@
         <v>184</v>
       </c>
       <c r="F27" t="n">
-        <v>10412.0</v>
+        <v>10428.0</v>
       </c>
       <c r="G27" t="n">
-        <v>10412.0</v>
+        <v>10428.0</v>
       </c>
     </row>
     <row r="28">
@@ -2965,10 +2965,10 @@
         <v>184</v>
       </c>
       <c r="F28" t="n">
-        <v>10292.0</v>
+        <v>10268.0</v>
       </c>
       <c r="G28" t="n">
-        <v>10292.0</v>
+        <v>10268.0</v>
       </c>
     </row>
     <row r="29">
@@ -3057,10 +3057,10 @@
         <v>184</v>
       </c>
       <c r="F32" t="n">
-        <v>1796.0</v>
+        <v>1804.0</v>
       </c>
       <c r="G32" t="n">
-        <v>1796.0</v>
+        <v>1804.0</v>
       </c>
     </row>
     <row r="33">
@@ -3080,10 +3080,10 @@
         <v>184</v>
       </c>
       <c r="F33" t="n">
-        <v>1436.0</v>
+        <v>1452.0</v>
       </c>
       <c r="G33" t="n">
-        <v>1436.0</v>
+        <v>1452.0</v>
       </c>
     </row>
     <row r="34">
@@ -3172,10 +3172,10 @@
         <v>184</v>
       </c>
       <c r="F37" t="n">
-        <v>13716.0</v>
+        <v>2272.0</v>
       </c>
       <c r="G37" t="n">
-        <v>13716.0</v>
+        <v>2272.0</v>
       </c>
     </row>
     <row r="38">
@@ -3195,10 +3195,10 @@
         <v>184</v>
       </c>
       <c r="F38" t="n">
-        <v>1516.0</v>
+        <v>1540.0</v>
       </c>
       <c r="G38" t="n">
-        <v>1516.0</v>
+        <v>1540.0</v>
       </c>
     </row>
     <row r="39">
@@ -3287,10 +3287,10 @@
         <v>184</v>
       </c>
       <c r="F42" t="n">
-        <v>724.0</v>
+        <v>19601.0</v>
       </c>
       <c r="G42" t="n">
-        <v>724.0</v>
+        <v>19601.0</v>
       </c>
     </row>
     <row r="43">
@@ -3310,10 +3310,10 @@
         <v>184</v>
       </c>
       <c r="F43" t="n">
-        <v>792.0</v>
+        <v>748.0</v>
       </c>
       <c r="G43" t="n">
-        <v>792.0</v>
+        <v>748.0</v>
       </c>
     </row>
     <row r="44">
@@ -3609,10 +3609,10 @@
         <v>184</v>
       </c>
       <c r="F56" t="n">
-        <v>3188.0</v>
+        <v>3196.0</v>
       </c>
       <c r="G56" t="n">
-        <v>3188.0</v>
+        <v>3196.0</v>
       </c>
     </row>
     <row r="57">
@@ -3632,10 +3632,10 @@
         <v>184</v>
       </c>
       <c r="F57" t="n">
-        <v>3240.0</v>
+        <v>3192.0</v>
       </c>
       <c r="G57" t="n">
-        <v>3240.0</v>
+        <v>3192.0</v>
       </c>
     </row>
     <row r="58">
@@ -3724,10 +3724,10 @@
         <v>184</v>
       </c>
       <c r="F61" t="n">
-        <v>136.0</v>
+        <v>132.0</v>
       </c>
       <c r="G61" t="n">
-        <v>136.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="62">
@@ -4092,10 +4092,10 @@
         <v>184</v>
       </c>
       <c r="F77" t="n">
-        <v>132.0</v>
+        <v>136.0</v>
       </c>
       <c r="G77" t="n">
-        <v>132.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="78">
@@ -4207,10 +4207,10 @@
         <v>184</v>
       </c>
       <c r="F82" t="n">
-        <v>136.0</v>
+        <v>132.0</v>
       </c>
       <c r="G82" t="n">
-        <v>136.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="83">
